--- a/data/trans_camb/P2A_senso_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,08</t>
+          <t>-2,68; 0,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,28</t>
+          <t>-2,64; 1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,78</t>
+          <t>-1,49; 2,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,2</t>
+          <t>-1,56; 2,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,49</t>
+          <t>-1,46; 1,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,15</t>
+          <t>-1,43; 1,41</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,89; 640,51</t>
+          <t>-80,08; 664,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,1; 572,34</t>
+          <t>-71,09; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,08; 305,77</t>
+          <t>-71,53; 275,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,23; 217,67</t>
+          <t>-65,25; 285,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,96</t>
+          <t>-2,93; 0,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; -0,62</t>
+          <t>-3,88; -0,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,46</t>
+          <t>0,27; 5,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,91</t>
+          <t>-1,26; 2,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; -0,13</t>
+          <t>-2,77; -0,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,53</t>
+          <t>2,58; 6,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,86</t>
+          <t>-1,53; 0,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; -0,73</t>
+          <t>-2,75; -0,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,36</t>
+          <t>2,12; 5,29</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-80,5; 98,38</t>
+          <t>-82,44; 85,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -17,53</t>
+          <t>-100,0; -25,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 373,1</t>
+          <t>1,41; 402,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,35; 210,33</t>
+          <t>-57,75; 256,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 109,96</t>
+          <t>-100,0; 37,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,09; 791,51</t>
+          <t>68,58; 746,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,61; 63,88</t>
+          <t>-59,14; 61,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-95,52; -43,5</t>
+          <t>-94,57; -38,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>73,72; 369,53</t>
+          <t>73,12; 388,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,16</t>
+          <t>0,21; 4,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,6</t>
+          <t>-0,7; 1,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,03</t>
+          <t>0,55; 4,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>-0,26; 2,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,32</t>
+          <t>-0,56; 1,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,29</t>
+          <t>0,14; 2,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,68</t>
+          <t>0,28; 2,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 1,06</t>
+          <t>-0,48; 1,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,54</t>
+          <t>0,57; 2,68</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,87; —</t>
+          <t>-37,38; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>33,69; —</t>
+          <t>26,49; —</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,49</t>
+          <t>-2,75; 1,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,42</t>
+          <t>-3,57; 0,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,46</t>
+          <t>-2,27; 3,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,36</t>
+          <t>0,7; 4,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,56</t>
+          <t>-0,45; 3,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,04</t>
+          <t>-0,26; 3,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,46</t>
+          <t>-0,26; 2,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,35</t>
+          <t>-1,57; 1,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,37</t>
+          <t>-0,93; 2,5</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,22; 134,95</t>
+          <t>-68,03; 131,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 82,4</t>
+          <t>-92,83; 90,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,13; 251,59</t>
+          <t>-72,0; 226,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,18; 1266,79</t>
+          <t>20,0; 1374,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,63; 802,62</t>
+          <t>-50,29; 781,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,49; 942,9</t>
+          <t>-44,91; 1100,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 249,8</t>
+          <t>-15,26; 232,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-60,42; 121,43</t>
+          <t>-64,83; 128,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 206,17</t>
+          <t>-44,82; 234,67</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 9,37</t>
+          <t>-0,35; 8,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 0,0</t>
+          <t>-5,22; -0,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,62; -0,35</t>
+          <t>-5,29; -0,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 5,22</t>
+          <t>-4,12; 4,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -2,68</t>
+          <t>-9,03; -2,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 0,16</t>
+          <t>-6,79; 0,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,42</t>
+          <t>-0,61; 5,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,17; -2,05</t>
+          <t>-5,85; -1,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,63</t>
+          <t>-5,06; -0,76</t>
         </is>
       </c>
     </row>
@@ -1655,22 +1655,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 663,4</t>
+          <t>-20,01; 547,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 41,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 61,06</t>
+          <t>-100,0; 43,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-53,45; 190,39</t>
+          <t>-59,07; 168,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1680,22 +1680,22 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-81,89; 15,77</t>
+          <t>-82,72; 8,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 184,2</t>
+          <t>-15,47; 181,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -59,7</t>
+          <t>-100,0; -60,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-81,79; -21,69</t>
+          <t>-82,27; -21,79</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,18</t>
+          <t>-0,76; 1,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,11</t>
+          <t>0,42; 4,85</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,61</t>
+          <t>0,81; 4,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 2,59</t>
+          <t>-0,35; 2,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,08</t>
+          <t>-0,02; 3,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,13</t>
+          <t>2,06; 6,19</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,35</t>
+          <t>-0,35; 1,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,11</t>
+          <t>0,38; 3,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,75</t>
+          <t>1,85; 4,67</t>
         </is>
       </c>
     </row>
@@ -1901,17 +1901,17 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>6,41; —</t>
+          <t>-2,95; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>156,61; —</t>
+          <t>157,46; —</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,53</t>
+          <t>-1,97; 0,67</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,27</t>
+          <t>-1,74; 1,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,85</t>
+          <t>0,22; 3,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,63</t>
+          <t>-1,31; 1,62</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 0,72</t>
+          <t>-1,91; 0,92</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,28; 49,44</t>
+          <t>3,08; 47,04</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,74</t>
+          <t>-1,19; 0,75</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,62</t>
+          <t>-1,26; 0,62</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,49; 32,96</t>
+          <t>2,49; 31,4</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-81,85; 83,88</t>
+          <t>-78,12; 106,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-65,83; 151,93</t>
+          <t>-75,9; 130,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 369,31</t>
+          <t>-2,37; 391,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-52,77; 155,3</t>
+          <t>-55,48; 153,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-76,1; 75,43</t>
+          <t>-76,26; 105,25</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>158,17; 5966,33</t>
+          <t>136,18; 4307,44</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-55,33; 63,27</t>
+          <t>-54,13; 70,92</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-61,83; 48,96</t>
+          <t>-59,64; 52,98</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>128,18; 3162,7</t>
+          <t>121,58; 2188,46</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,81</t>
+          <t>-1,23; 0,81</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,0</t>
+          <t>-1,29; 0,8</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,29</t>
+          <t>-1,46; 0,39</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 0,91</t>
+          <t>-1,88; 0,74</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,15</t>
+          <t>-2,47; -0,05</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,02</t>
+          <t>-2,39; -0,05</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,49</t>
+          <t>-1,15; 0,51</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,19</t>
+          <t>-1,51; 0,1</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,57; -0,14</t>
+          <t>-1,62; -0,13</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-73,7; 145,99</t>
+          <t>-74,14; 146,08</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-79,1; 188,17</t>
+          <t>-78,81; 157,65</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-86,86; 87,09</t>
+          <t>-87,74; 113,93</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-68,7; 78,64</t>
+          <t>-69,43; 63,42</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-85,58; 33,1</t>
+          <t>-87,31; 10,87</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-83,9; 7,96</t>
+          <t>-84,94; 4,48</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-59,21; 51,69</t>
+          <t>-59,95; 48,79</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-74,2; 33,19</t>
+          <t>-74,38; 18,21</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-77,7; -4,32</t>
+          <t>-77,85; -10,06</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,76</t>
+          <t>-0,48; 0,78</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,04</t>
+          <t>-1,12; 0,08</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,5</t>
+          <t>0,2; 1,6</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,27</t>
+          <t>-0,07; 1,23</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,07</t>
+          <t>-1,12; -0,02</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,3; 14,23</t>
+          <t>1,31; 14,01</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 0,78</t>
+          <t>-0,09; 0,83</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,92; -0,12</t>
+          <t>-0,95; -0,16</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,02; 8,66</t>
+          <t>1,07; 8,1</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 60,76</t>
+          <t>-27,2; 62,78</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-59,64; 3,84</t>
+          <t>-59,67; 9,78</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>8,88; 120,73</t>
+          <t>9,71; 122,96</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 95,87</t>
+          <t>-4,73; 93,27</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-56,34; 9,85</t>
+          <t>-57,02; -0,27</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>75,58; 1017,38</t>
+          <t>73,35; 907,13</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 58,23</t>
+          <t>-5,35; 61,02</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-51,95; -8,74</t>
+          <t>-52,55; -10,83</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>61,5; 596,23</t>
+          <t>63,94; 544,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_senso_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 5,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,27</t>
+          <t>-2,63; 1,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 5,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,25</t>
+          <t>-1,62; 2,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 4,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,41</t>
+          <t>-1,52; 1,35</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>177,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-36,42%</t>
+          <t>-35,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>187,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,32%</t>
+          <t>35,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>181,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>-1,55%</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-45,36; 1332,4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,55; 1418,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,09; —</t>
+          <t>-72,4; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,76; 708,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,25; 285,47</t>
+          <t>-67,74; 267,23</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>3,33</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 5,35</t>
+          <t>0,06; 5,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,78</t>
+          <t>2,19; 6,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,29</t>
+          <t>1,78; 4,88</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>120,05%</t>
+          <t>107,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>274,64%</t>
+          <t>249,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>184,34%</t>
+          <t>166,09%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 402,36</t>
+          <t>-4,31; 363,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,58; 746,16</t>
+          <t>55,03; 686,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>73,12; 388,13</t>
+          <t>62,14; 362,37</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,03</t>
+          <t>0,54; 3,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,23</t>
+          <t>0,14; 2,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,68</t>
+          <t>0,57; 2,72</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>581,77%</t>
+          <t>572,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>405,25%</t>
+          <t>402,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>493,82%</t>
+          <t>491,41%</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,49; —</t>
+          <t>24,19; —</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,37 +1290,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,41</t>
+          <t>-3,73; 0,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,37 +1343,37 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 3,2</t>
+          <t>-2,39; 2,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,21</t>
+          <t>-0,05; 4,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,66</t>
+          <t>-0,76; 3,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,84</t>
+          <t>-1,22; 2,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,38</t>
+          <t>-1,22; 1,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,32</t>
+          <t>-1,68; 1,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,5</t>
+          <t>-1,41; 1,58</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,88%</t>
+          <t>-63,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,37 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>229,04%</t>
+          <t>149,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>117,75%</t>
+          <t>74,41%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>103,57%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>57,87%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-5,15%</t>
+          <t>-11,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-68,03; 131,38</t>
+          <t>-92,56; 49,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,37 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-72,0; 226,91</t>
+          <t>-73,55; 197,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,0; 1374,7</t>
+          <t>-19,57; 824,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,29; 781,25</t>
+          <t>-58,74; 562,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,91; 1100,92</t>
+          <t>-67,23; 432,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 232,91</t>
+          <t>-51,74; 156,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-64,83; 128,91</t>
+          <t>-66,81; 113,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-44,82; 234,67</t>
+          <t>-58,99; 150,43</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-2,6</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,29; -0,3</t>
+          <t>-5,31; -0,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 0,09</t>
+          <t>-7,01; -0,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,06; -0,76</t>
+          <t>-5,19; -0,88</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-78,16%</t>
+          <t>-78,27%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-55,67%</t>
+          <t>-60,11%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-61,47%</t>
+          <t>-63,89%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 43,87</t>
+          <t>-100,0; 43,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-82,72; 8,8</t>
+          <t>-85,96; -2,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-82,27; -21,79</t>
+          <t>-83,48; -23,6</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,09</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,58</t>
+          <t>0,77; 4,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,19</t>
+          <t>2,02; 6,18</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,67</t>
+          <t>1,79; 4,57</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>647,33%</t>
+          <t>629,44%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1122,81%</t>
+          <t>1119,91%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>874,01%</t>
+          <t>859,04%</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>157,46; —</t>
+          <t>152,61; —</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>16,79</t>
+          <t>26,52</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>16,06</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,93</t>
+          <t>0,2; 3,89</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,08; 47,04</t>
+          <t>3,03; 62,88</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,49; 31,4</t>
+          <t>2,42; 45,91</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>112,72%</t>
+          <t>108,84%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>954,83%</t>
+          <t>1508,14%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>598,47%</t>
+          <t>936,91%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 391,76</t>
+          <t>-3,27; 381,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>136,18; 4307,44</t>
+          <t>138,86; 6478,88</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>121,58; 2188,46</t>
+          <t>119,24; 3278,92</t>
         </is>
       </c>
     </row>
@@ -2154,37 +2154,37 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
           <t>-1,1</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>-0,82</t>
         </is>
       </c>
     </row>
@@ -2207,37 +2207,37 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,39</t>
+          <t>-1,75; 0,06</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,74</t>
+          <t>-2,1; 0,63</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,05</t>
+          <t>-2,74; -0,19</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,39; -0,05</t>
+          <t>-2,7; -0,43</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,51</t>
+          <t>-1,23; 0,48</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,1</t>
+          <t>-1,57; 0,01</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,62; -0,13</t>
+          <t>-1,89; -0,43</t>
         </is>
       </c>
     </row>
@@ -2260,37 +2260,37 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-47,88%</t>
+          <t>-68,3%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-23,79%</t>
+          <t>-29,26%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-58,27%</t>
+          <t>-61,27%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-57,91%</t>
+          <t>-68,54%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>-20,21%</t>
+          <t>-24,01%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>-43,77%</t>
+          <t>-46,45%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-54,52%</t>
+          <t>-69,9%</t>
         </is>
       </c>
     </row>
@@ -2313,37 +2313,37 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-87,74; 113,93</t>
+          <t>-96,0; 52,54</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-69,43; 63,42</t>
+          <t>-71,48; 51,42</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-87,31; 10,87</t>
+          <t>-87,49; 4,65</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-84,94; 4,48</t>
+          <t>-87,9; -29,28</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-59,95; 48,79</t>
+          <t>-59,75; 51,11</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-74,38; 18,21</t>
+          <t>-74,59; 9,5</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-77,85; -10,06</t>
+          <t>-87,33; -36,25</t>
         </is>
       </c>
     </row>
@@ -2370,37 +2370,37 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>3,75</t>
         </is>
       </c>
     </row>
@@ -2423,37 +2423,37 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,6</t>
+          <t>-0,04; 1,38</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,23</t>
+          <t>-0,16; 1,16</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,12; -0,02</t>
+          <t>-1,19; -0,06</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,31; 14,01</t>
+          <t>1,07; 22,78</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 0,83</t>
+          <t>-0,12; 0,82</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,95; -0,16</t>
+          <t>-0,98; -0,17</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,07; 8,1</t>
+          <t>0,8; 12,88</t>
         </is>
       </c>
     </row>
@@ -2476,37 +2476,37 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>-33,3%</t>
+          <t>-35,8%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>270,23%</t>
+          <t>399,6%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>-33,83%</t>
+          <t>-35,14%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>171,41%</t>
+          <t>234,06%</t>
         </is>
       </c>
     </row>
@@ -2529,37 +2529,37 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>9,71; 122,96</t>
+          <t>-3,61; 105,32</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 93,27</t>
+          <t>-8,45; 84,98</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-57,02; -0,27</t>
+          <t>-59,14; -3,13</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>73,35; 907,13</t>
+          <t>57,98; 1513,5</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 61,02</t>
+          <t>-6,74; 58,11</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-52,55; -10,83</t>
+          <t>-53,75; -12,07</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>63,94; 544,49</t>
+          <t>49,15; 910,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_senso_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Provincia-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 5,22</t>
+          <t>-0,3; 4,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,99</t>
+          <t>-2,58; 1,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,29</t>
+          <t>-2,54; 1,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,14</t>
+          <t>-0,09; 5,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,85</t>
+          <t>-1,49; 2,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,12</t>
+          <t>-1,75; 2,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,27</t>
+          <t>0,47; 4,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,43</t>
+          <t>-1,37; 1,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,35</t>
+          <t>-1,34; 1,26</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,36; 1332,4</t>
+          <t>-46,04; 1220,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,55; 1418,98</t>
+          <t>-31,17; 1293,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,08; 664,17</t>
+          <t>-73,22; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,4; —</t>
+          <t>-77,89; 525,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,76; 708,2</t>
+          <t>5,63; 745,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,53; 275,24</t>
+          <t>-72,35; 243,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,74; 267,23</t>
+          <t>-67,46; 214,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,8</t>
+          <t>-2,82; 0,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; -0,72</t>
+          <t>-3,74; -0,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,0</t>
+          <t>0,23; 5,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,05</t>
+          <t>-1,33; 1,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,18</t>
+          <t>-2,59; -0,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,18</t>
+          <t>2,01; 5,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,85</t>
+          <t>-1,57; 0,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; -0,72</t>
+          <t>-2,72; -0,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,88</t>
+          <t>1,77; 4,91</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,44; 85,49</t>
+          <t>-82,8; 82,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -25,07</t>
+          <t>-100,0; -26,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 363,28</t>
+          <t>1,84; 370,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,75; 256,33</t>
+          <t>-60,41; 200,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 37,84</t>
+          <t>-100,0; 54,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,03; 686,13</t>
+          <t>62,53; 677,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,14; 61,08</t>
+          <t>-59,59; 62,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-94,57; -38,8</t>
+          <t>-95,14; -45,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,14; 362,37</t>
+          <t>58,03; 367,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,44</t>
+          <t>0,24; 4,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,99</t>
+          <t>-0,69; 2,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,97</t>
+          <t>0,52; 3,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,33</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,08</t>
+          <t>-0,57; 1,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,22</t>
+          <t>0,07; 2,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,53</t>
+          <t>0,27; 2,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 1,1</t>
+          <t>-0,44; 1,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,72</t>
+          <t>0,67; 2,55</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,38; —</t>
+          <t>-10,0; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,19; —</t>
+          <t>38,75; —</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 0,14</t>
+          <t>-3,49; 0,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,54</t>
+          <t>-3,47; 0,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,8</t>
+          <t>-2,32; 2,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,3</t>
+          <t>-0,12; 4,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,29</t>
+          <t>-0,96; 3,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,29</t>
+          <t>-1,33; 2,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 1,69</t>
+          <t>-1,17; 1,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,29</t>
+          <t>-1,44; 1,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,58</t>
+          <t>-1,43; 1,75</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-92,56; 49,57</t>
+          <t>-100,0; 52,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-92,83; 90,85</t>
+          <t>-100,0; 69,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-73,55; 197,51</t>
+          <t>-72,2; 205,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 824,69</t>
+          <t>-31,83; 711,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,74; 562,91</t>
+          <t>-59,3; 580,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,23; 432,0</t>
+          <t>-70,12; 472,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-51,74; 156,03</t>
+          <t>-51,96; 139,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-66,81; 113,27</t>
+          <t>-62,17; 118,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,99; 150,43</t>
+          <t>-59,39; 136,07</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 8,59</t>
+          <t>0,19; 8,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,22; -0,01</t>
+          <t>-5,02; -0,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,31; -0,32</t>
+          <t>-5,32; -0,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 4,87</t>
+          <t>-3,6; 5,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -2,59</t>
+          <t>-8,95; -2,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,01; -0,11</t>
+          <t>-6,85; -0,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,41</t>
+          <t>-0,73; 5,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,85; -1,97</t>
+          <t>-6,19; -2,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -0,88</t>
+          <t>-5,01; -0,8</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 547,15</t>
+          <t>-10,72; 590,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 45,22</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 69,76</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-56,7; 161,99</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 43,05</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-59,07; 168,6</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-85,96; -2,54</t>
+          <t>-84,87; -5,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 181,85</t>
+          <t>-19,42; 181,25</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -60,52</t>
+          <t>-100,0; -54,6</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,48; -23,6</t>
+          <t>-84,93; -25,48</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,16</t>
+          <t>-0,76; 1,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,85</t>
+          <t>0,36; 4,96</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,48</t>
+          <t>0,84; 4,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,58</t>
+          <t>-0,35; 2,24</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,14</t>
+          <t>-0,02; 2,86</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,18</t>
+          <t>2,13; 6,1</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,5</t>
+          <t>-0,37; 1,32</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,03</t>
+          <t>0,44; 3,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,57</t>
+          <t>1,88; 4,74</t>
         </is>
       </c>
     </row>
@@ -1901,24 +1901,24 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,95; —</t>
+          <t>-8,17; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>152,61; —</t>
+          <t>142,78; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,67</t>
+          <t>-1,98; 0,68</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,26</t>
+          <t>-1,6; 1,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,89</t>
+          <t>0,14; 3,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,62</t>
+          <t>-1,24; 1,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,92</t>
+          <t>-1,88; 0,79</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,03; 62,88</t>
+          <t>3,19; 58,69</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,75</t>
+          <t>-1,2; 0,84</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,62</t>
+          <t>-1,43; 0,52</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,42; 45,91</t>
+          <t>2,33; 48,67</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-78,12; 106,51</t>
+          <t>-80,52; 80,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-75,9; 130,57</t>
+          <t>-69,04; 134,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 381,65</t>
+          <t>-4,32; 357,21</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-55,48; 153,06</t>
+          <t>-53,2; 147,57</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-76,26; 105,25</t>
+          <t>-72,69; 84,03</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>138,86; 6478,88</t>
+          <t>160,71; 7504,29</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-54,13; 70,92</t>
+          <t>-53,57; 73,15</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-59,64; 52,98</t>
+          <t>-63,52; 43,72</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>119,24; 3278,92</t>
+          <t>121,24; 3788,47</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,81</t>
+          <t>-1,22; 0,85</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,8</t>
+          <t>-1,29; 0,75</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,06</t>
+          <t>-1,84; -0,06</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,63</t>
+          <t>-1,87; 0,79</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,19</t>
+          <t>-2,45; -0,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,43</t>
+          <t>-2,64; -0,43</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,48</t>
+          <t>-1,24; 0,51</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,01</t>
+          <t>-1,66; 0,01</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,89; -0,43</t>
+          <t>-1,84; -0,36</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-74,14; 146,08</t>
+          <t>-73,52; 164,8</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-78,81; 157,65</t>
+          <t>-80,45; 138,11</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-96,0; 52,54</t>
+          <t>-98,29; 10,06</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-71,48; 51,42</t>
+          <t>-67,97; 65,91</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-87,49; 4,65</t>
+          <t>-86,14; -0,96</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-87,9; -29,28</t>
+          <t>-88,51; -25,22</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-59,75; 51,11</t>
+          <t>-61,58; 46,61</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-74,59; 9,5</t>
+          <t>-77,68; 7,54</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-87,33; -36,25</t>
+          <t>-86,11; -30,2</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,78</t>
+          <t>-0,52; 0,73</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,08</t>
+          <t>-1,17; 0,05</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,38</t>
+          <t>-0,06; 1,35</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,16</t>
+          <t>-0,17; 1,18</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,19; -0,06</t>
+          <t>-1,17; -0,07</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,07; 22,78</t>
+          <t>1,09; 23,6</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,82</t>
+          <t>-0,11; 0,84</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,98; -0,17</t>
+          <t>-1,0; -0,17</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,8; 12,88</t>
+          <t>0,86; 13,82</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 62,78</t>
+          <t>-29,95; 58,24</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-59,67; 9,78</t>
+          <t>-60,36; 7,22</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 105,32</t>
+          <t>-3,67; 102,16</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 84,98</t>
+          <t>-8,83; 84,94</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-59,14; -3,13</t>
+          <t>-57,67; -3,42</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>57,98; 1513,5</t>
+          <t>58,71; 1450,72</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 58,11</t>
+          <t>-6,28; 57,42</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-53,75; -12,07</t>
+          <t>-54,1; -12,03</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>49,15; 910,07</t>
+          <t>53,77; 918,72</t>
         </is>
       </c>
     </row>
